--- a/PCB/production/BOM.xlsx
+++ b/PCB/production/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Documents\GitHub\OMOTE\PCB\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862E0C2-B147-49DE-B828-B64D26AA3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE650A03-78CB-436D-930B-2CFDC8E93FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="915" windowWidth="18210" windowHeight="13890" xr2:uid="{0D1F3E65-C25E-4AA9-A4C8-FF6E85BADB4A}"/>
+    <workbookView xWindow="18990" yWindow="1065" windowWidth="18210" windowHeight="13890" xr2:uid="{0D1F3E65-C25E-4AA9-A4C8-FF6E85BADB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>5.1k</t>
   </si>
   <si>
-    <t>C114626</t>
-  </si>
-  <si>
     <t>S1, S10, S11, S12, S13, S14, S15, S16, S17, S18, S19, S2, S20, S22, S23, S24, S25, S26, S3, S4, S5, S6, S7, S8, S9</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>C405273</t>
+  </si>
+  <si>
+    <t>C105580</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E7009-FF7F-4F01-8053-7357149DCFC6}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,16 +865,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,185 +1112,185 @@
         <v>603</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/production/BOM.xlsx
+++ b/PCB/production/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Documents\GitHub\OMOTE\PCB\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE650A03-78CB-436D-930B-2CFDC8E93FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441828DF-5757-49EA-97BB-245E7C26E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18990" yWindow="1065" windowWidth="18210" windowHeight="13890" xr2:uid="{0D1F3E65-C25E-4AA9-A4C8-FF6E85BADB4A}"/>
+    <workbookView xWindow="20190" yWindow="615" windowWidth="18210" windowHeight="13890" xr2:uid="{0D1F3E65-C25E-4AA9-A4C8-FF6E85BADB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>Designator</t>
   </si>
@@ -48,9 +48,6 @@
     <t>C1591</t>
   </si>
   <si>
-    <t>C11, C13, C14, C16, C18, C21, C25, C28, C3, C5, C6, C7, C8</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -189,18 +186,12 @@
     <t>C114662</t>
   </si>
   <si>
-    <t>R10, R13, R14, R19, R20, R22, R24, R26, R30, R36, R37, R6</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
     <t>C98220</t>
   </si>
   <si>
-    <t>R11, R12, R25, R8</t>
-  </si>
-  <si>
     <t>4k7</t>
   </si>
   <si>
@@ -213,12 +204,6 @@
     <t>C109318</t>
   </si>
   <si>
-    <t>R2, R27, R28, R29</t>
-  </si>
-  <si>
-    <t>C105881</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>C2849062</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -393,19 +375,19 @@
     <t>3.7V 2000mAh LiPo</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SFH4547</t>
-  </si>
-  <si>
-    <t>LED_5mm_Side_Mount</t>
-  </si>
-  <si>
-    <t>C405273</t>
-  </si>
-  <si>
     <t>C105580</t>
+  </si>
+  <si>
+    <t>R11, R12, R8</t>
+  </si>
+  <si>
+    <t>C11, C13, C16, C18, C21, C25, C28, C3, C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t>R10, R13, R14, R19, R20, R22, R24, R25, R26, R30, R36, R37, R6</t>
+  </si>
+  <si>
+    <t>R2, R3, R27, R28, R29</t>
   </si>
 </sst>
 </file>
@@ -766,15 +748,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E7009-FF7F-4F01-8053-7357149DCFC6}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -809,203 +791,203 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>805</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>603</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
       <c r="C6">
         <v>603</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1206</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>1206</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>603</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>603</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -1021,25 +1003,25 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
+      <c r="B18">
+        <v>10</v>
       </c>
       <c r="C18">
         <v>603</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
       <c r="C19">
-        <v>603</v>
+        <v>805</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -1047,10 +1029,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20">
-        <v>330</v>
       </c>
       <c r="C20">
         <v>603</v>
@@ -1063,39 +1045,39 @@
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>603</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21">
-        <v>805</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
       <c r="C22">
         <v>603</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>603</v>
+      <c r="C23" t="s">
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>71</v>
@@ -1108,189 +1090,161 @@
       <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
-        <v>603</v>
+      <c r="C24" t="s">
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
       <c r="D34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
         <v>113</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
